--- a/MyObjective/target/classes/Student Grades/Student Grades.xlsx
+++ b/MyObjective/target/classes/Student Grades/Student Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MyObjective\src\main\resources\Student Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8519AC-07A4-4480-8D43-177CFD0057BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8301B8-D873-479C-B2FA-928A748A2303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36060" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,9 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
